--- a/Laskupohja.xlsx
+++ b/Laskupohja.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" checkCompatibility="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5D4076-A957-4FE6-B75B-18EA22A6AC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD23B5-1894-4D3C-980E-E0E001DBB0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="555" windowWidth="16380" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16545" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="24" r:id="rId1"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="13">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>24</v>

--- a/Laskupohja.xlsx
+++ b/Laskupohja.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" checkCompatibility="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD23B5-1894-4D3C-980E-E0E001DBB0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9566A49-BDCF-48F2-B527-949948DC0D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16545" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="24" r:id="rId1"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>24</v>
@@ -1793,6 +1793,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="30" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cec0622158e8f13124e9e8fd4de31bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b52f30ab005d15df08657af532e6e38" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2110,36 +2139,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D626D1C8-EC9A-4213-BF72-F97E82B4EAAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42C6076-3E7F-4885-A017-B36671B5853A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368254F9-4B70-4B70-9250-7541232C303C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2160,26 +2180,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42C6076-3E7F-4885-A017-B36671B5853A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D626D1C8-EC9A-4213-BF72-F97E82B4EAAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Laskupohja.xlsx
+++ b/Laskupohja.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" checkCompatibility="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9566A49-BDCF-48F2-B527-949948DC0D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6149C233-5316-4886-BD61-5CC4372CB8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,22 +109,22 @@
     <t>14 päivää laskun päiväyksestä</t>
   </si>
   <si>
-    <t>03.09.2025</t>
-  </si>
-  <si>
-    <t>Aku Ankka</t>
-  </si>
-  <si>
     <t>nikolettberkinevarga@gmail.com</t>
   </si>
   <si>
-    <t>Suklaakakku 15 hlö</t>
-  </si>
-  <si>
     <t>Juustokakku 12 hlö</t>
   </si>
   <si>
-    <t>Vadelma kerma kakku 15 hlö</t>
+    <t>19.09.2025</t>
+  </si>
+  <si>
+    <t>Nikolett Berkine</t>
+  </si>
+  <si>
+    <t>Juustokakku 15 hlö</t>
+  </si>
+  <si>
+    <t>Mansikka kermakakku 15 hlö</t>
   </si>
 </sst>
 </file>
@@ -1419,14 +1419,14 @@
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="40" t="s">
@@ -1485,37 +1485,37 @@
     </row>
     <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="28">
         <v>60</v>
       </c>
       <c r="E16" s="29">
         <f>IF(C16="",ROUND(1*D16,2),ROUND(C16*D16,2))</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
       </c>
       <c r="D17" s="31">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17" s="32">
         <f t="shared" ref="E17:E30" si="0">IF(C17="",ROUND(1*D17,2),ROUND(C17*D17,2))</f>
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="30">
         <v>1</v>
@@ -1646,7 +1646,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="35">
         <f>SUM(E16:E29)</f>
-        <v>233.5</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
       <c r="D33" s="20"/>
       <c r="E33" s="35">
         <f>ROUND(E31 * ($E$32/(1+$E$32)), 2)</f>
-        <v>45.19</v>
+        <v>32.61</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
       <c r="D34" s="42"/>
       <c r="E34" s="47">
         <f>E31</f>
-        <v>233.5</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,35 +1793,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="30" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cec0622158e8f13124e9e8fd4de31bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b52f30ab005d15df08657af532e6e38" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2139,27 +2110,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D626D1C8-EC9A-4213-BF72-F97E82B4EAAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42C6076-3E7F-4885-A017-B36671B5853A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368254F9-4B70-4B70-9250-7541232C303C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2180,6 +2160,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42C6076-3E7F-4885-A017-B36671B5853A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D626D1C8-EC9A-4213-BF72-F97E82B4EAAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/Laskupohja.xlsx
+++ b/Laskupohja.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" checkCompatibility="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6149C233-5316-4886-BD61-5CC4372CB8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE73FE7-58BD-4F28-B39F-3326E01433B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>INVOICE</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>nikolettberkinevarga@gmail.com</t>
-  </si>
-  <si>
-    <t>Juustokakku 12 hlö</t>
   </si>
   <si>
     <t>19.09.2025</t>
@@ -1356,8 +1353,8 @@
   </sheetPr>
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,14 +1416,14 @@
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1482,7 @@
     </row>
     <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="27">
         <v>1</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="17" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
@@ -1514,18 +1511,12 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="31">
-        <v>48.5</v>
-      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="32">
         <f t="shared" si="0"/>
-        <v>48.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,7 +1637,7 @@
       <c r="D31" s="50"/>
       <c r="E31" s="35">
         <f>SUM(E16:E29)</f>
-        <v>168.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,7 +1658,7 @@
       <c r="D33" s="20"/>
       <c r="E33" s="35">
         <f>ROUND(E31 * ($E$32/(1+$E$32)), 2)</f>
-        <v>32.61</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,7 +1669,7 @@
       <c r="D34" s="42"/>
       <c r="E34" s="47">
         <f>E31</f>
-        <v>168.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
